--- a/NewIndex.xlsx
+++ b/NewIndex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Engineering\Eli Saunders\Python\NewCompiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A5DB85-BE21-456B-8A56-2A26B7CCBFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661A3D8A-BB81-4A36-90C5-7F2DF43E74E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-405" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -2218,7 +2218,7 @@
   <dimension ref="A1:C458"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4657,7 +4657,7 @@
         <v>223</v>
       </c>
       <c r="B220" s="13" t="str">
-        <f t="shared" ref="B220:B255" si="2">_xlfn.CONCAT("Pump Datasheet ",LEFT(A220,21))</f>
+        <f t="shared" ref="B220:B233" si="2">_xlfn.CONCAT("Pump Datasheet ",LEFT(A220,21))</f>
         <v>Pump Datasheet SLPRAM-ME-G74-DS-0005</v>
       </c>
       <c r="C220" s="15" t="s">
